--- a/exceleservices/katanie.xlsx
+++ b/exceleservices/katanie.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
